--- a/framework/src/main/java/Testcase/sheet.xlsx
+++ b/framework/src/main/java/Testcase/sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -31,45 +31,15 @@
     <t xml:space="preserve">Expected result</t>
   </si>
   <si>
-    <t xml:space="preserve">imprivatatest@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with valid character email id in email field.</t>
+    <t xml:space="preserve">imprivata.12@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the forgot username screen with email ifd that contain dot in email field.</t>
   </si>
   <si>
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">imprivata1234@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with email id that contain digits and characters in email field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-123@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with email id that contain hyphen in email field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imprivata.12@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with email ifd that contain dot in email field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">838583@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with valid digits email id in email field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_12@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with email that contain underscore in email field.</t>
-  </si>
-  <si>
     <t xml:space="preserve">imprivata@cwdudcef.w3rf</t>
   </si>
   <si>
@@ -77,12 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imprivata1@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the forgot username screen with email id that contain capital character in email field.</t>
   </si>
   <si>
     <t xml:space="preserve">imprivata@@yopmail.com</t>
@@ -220,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,10 +194,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,8 +299,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -350,81 +310,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,7 +395,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,88 +406,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="imprivatatest@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="imprivata1234@yopmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="test-123@yopmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="imprivata.12@yopmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="838583@yopmail.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="test_12@yopmail.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="imprivata@cwdudcef.w3rf"/>
-    <hyperlink ref="A9" r:id="rId8" display="Imprivata1@yopmail.com"/>
-    <hyperlink ref="A14" r:id="rId9" display="impri........vata@yopmail.com"/>
-    <hyperlink ref="A16" r:id="rId10" display="Imprivata@123.123.123.123"/>
-    <hyperlink ref="A17" r:id="rId11" display="impriva@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="imprivata.12@yopmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="imprivata@cwdudcef.w3rf"/>
+    <hyperlink ref="A8" r:id="rId3" display="impri........vata@yopmail.com"/>
+    <hyperlink ref="A10" r:id="rId4" display="Imprivata@123.123.123.123"/>
+    <hyperlink ref="A11" r:id="rId5" display="impriva@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
